--- a/output/DISA_top_office_contract_labeled.xlsx
+++ b/output/DISA_top_office_contract_labeled.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Users\Greg\Repositories\Services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Users\Greg\Repositories\Services\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{32892D81-840F-4B61-AF8A-CF76A70984E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23330F8A-8316-496D-BB2D-EA1956B9863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DISA_top_office_contract" sheetId="1" r:id="rId1"/>
     <sheet name="Other contracts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="138">
   <si>
     <t>idv_or_piid</t>
   </si>
@@ -404,9 +415,6 @@
     <t>https://www.usaspending.gov/award/CONT_IDV_DCA20002D5001_9700</t>
   </si>
   <si>
-    <t>DISN Support</t>
-  </si>
-  <si>
     <t>https://www.usaspending.gov/award/CONT_IDV_DCA20000D5000_9700</t>
   </si>
   <si>
@@ -432,15 +440,21 @@
   </si>
   <si>
     <t>IDV</t>
+  </si>
+  <si>
+    <t>DISN Support (ambiguous)</t>
+  </si>
+  <si>
+    <t>(MCIT) MCI Worldcom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -944,11 +958,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="44"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1315,11 +1328,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,9 +1342,9 @@
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="2"/>
+    <col min="5" max="5" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="66.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="76.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1348,13 +1362,13 @@
       <c r="E1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
@@ -1384,16 +1398,16 @@
       <c r="E2" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1758513909.64468</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>5.9576235756883797E-2</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="J2" t="s">
@@ -1417,20 +1431,20 @@
       <c r="E3" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1638936084.3140199</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>5.5525089687397097E-2</v>
       </c>
       <c r="I3" t="s">
         <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1450,13 +1464,13 @@
       <c r="E4" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>1443151988.90345</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>4.8892171197724703E-2</v>
       </c>
       <c r="I4" t="s">
@@ -1486,13 +1500,13 @@
       <c r="E5" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>1308247061.02968</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>4.4321762204259998E-2</v>
       </c>
       <c r="I5" t="s">
@@ -1522,19 +1536,19 @@
       <c r="E6" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>763481148.20258999</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>2.5865779412825099E-2</v>
       </c>
       <c r="I6" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>118</v>
       </c>
       <c r="K6" t="s">
@@ -1561,19 +1575,19 @@
       <c r="E7" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>1209591848.9570799</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.40291750539858401</v>
       </c>
       <c r="I7" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>119</v>
       </c>
       <c r="K7" t="s">
@@ -1600,13 +1614,13 @@
       <c r="E8" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>247387379.503048</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>8.2405239339537195E-2</v>
       </c>
     </row>
@@ -1627,13 +1641,13 @@
       <c r="E9" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>166791519.84534699</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>5.5558594542174697E-2</v>
       </c>
     </row>
@@ -1654,13 +1668,13 @@
       <c r="E10" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>145044183.86622</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>4.8314512689829399E-2</v>
       </c>
     </row>
@@ -1681,13 +1695,13 @@
       <c r="E11" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>119222722.51124699</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>3.97133313873414E-2</v>
       </c>
     </row>
@@ -1708,19 +1722,19 @@
       <c r="E12" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>178694763.67212799</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>6.2546682743403706E-2</v>
       </c>
       <c r="I12" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>102</v>
       </c>
       <c r="K12" t="s">
@@ -1747,13 +1761,13 @@
       <c r="E13" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>110062034.220505</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>3.8523877225157301E-2</v>
       </c>
     </row>
@@ -1774,13 +1788,13 @@
       <c r="E14" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>99079459.077824906</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>3.4679759865259799E-2</v>
       </c>
     </row>
@@ -1801,13 +1815,13 @@
       <c r="E15" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>69763186.108054206</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>2.4418487587446198E-2</v>
       </c>
     </row>
@@ -1828,13 +1842,13 @@
       <c r="E16" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>66724921.402460799</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>2.33550351687737E-2</v>
       </c>
     </row>
@@ -1855,17 +1869,20 @@
       <c r="E17" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>39066965.343098298</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>0.318649059643138</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1885,13 +1902,13 @@
       <c r="E18" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>15310855.562993901</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>0.12488274132973599</v>
       </c>
       <c r="I18" t="s">
@@ -1915,13 +1932,13 @@
       <c r="E19" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>8420322.3553962</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>6.8680220664057698E-2</v>
       </c>
     </row>
@@ -1942,13 +1959,13 @@
       <c r="E20" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>7786122.27959261</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>6.3507378186900207E-2</v>
       </c>
     </row>
@@ -1969,13 +1986,13 @@
       <c r="E21" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>4985490.2062678598</v>
       </c>
       <c r="G21">
         <v>5</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>4.0664068788951298E-2</v>
       </c>
     </row>
@@ -1993,16 +2010,16 @@
       <c r="D22" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>2959812100.3210101</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>7.2923635441402804E-2</v>
       </c>
       <c r="I22" t="s">
@@ -2032,23 +2049,23 @@
       <c r="D23" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>2226611564.5646701</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>5.4859093922318698E-2</v>
       </c>
       <c r="I23" t="s">
         <v>126</v>
       </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2065,16 +2082,16 @@
       <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>1756411471.84009</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>4.32743382066966E-2</v>
       </c>
       <c r="I24" t="s">
@@ -2098,16 +2115,16 @@
       <c r="D25" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>954220884.75736201</v>
       </c>
       <c r="G25">
         <v>4</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>2.3510024816464501E-2</v>
       </c>
     </row>
@@ -2125,16 +2142,16 @@
       <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>891327185.55359495</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>2.1960454425898401E-2</v>
       </c>
     </row>
@@ -2155,13 +2172,13 @@
       <c r="E27" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>17244594.383400001</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>0.99956972592750903</v>
       </c>
       <c r="I27" t="s">
@@ -2187,7 +2204,7 @@
       <c r="E28" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>1593.1032519103901</v>
       </c>
       <c r="G28">
@@ -2210,7 +2227,7 @@
       <c r="E29" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>1418.0727907166299</v>
       </c>
       <c r="G29">
@@ -2233,7 +2250,7 @@
       <c r="E30" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>831.33286009254698</v>
       </c>
       <c r="G30">
@@ -2256,7 +2273,7 @@
       <c r="E31" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>818.971653662363</v>
       </c>
       <c r="G31">
@@ -2280,16 +2297,16 @@
       <c r="D32" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>719232470.34867001</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>6.7209472584679394E-2</v>
       </c>
       <c r="I32" t="s">
@@ -2316,16 +2333,16 @@
       <c r="D33" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>554668382.486112</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>5.1831599633171098E-2</v>
       </c>
     </row>
@@ -2343,28 +2360,28 @@
       <c r="D34" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>418108918.26015902</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>3.9070649668518698E-2</v>
       </c>
       <c r="I34" t="s">
         <v>104</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="5" t="s">
         <v>106</v>
       </c>
       <c r="K34" t="s">
         <v>105</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="5" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2382,22 +2399,22 @@
       <c r="D35" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>380787767.922023</v>
       </c>
       <c r="G35">
         <v>4</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>3.5583133553925499E-2</v>
       </c>
       <c r="I35" t="s">
         <v>109</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="5" t="s">
         <v>111</v>
       </c>
       <c r="K35" t="s">
@@ -2421,16 +2438,16 @@
       <c r="D36" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>342065728.85602498</v>
       </c>
       <c r="G36">
         <v>5</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>3.1964709844874199E-2</v>
       </c>
     </row>
@@ -2447,13 +2464,13 @@
       <c r="E37" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>50815036.823586501</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>0.187419474425392</v>
       </c>
       <c r="I37" t="s">
@@ -2482,13 +2499,13 @@
       <c r="E38" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>16917237.139521901</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>6.2395304453409801E-2</v>
       </c>
     </row>
@@ -2505,13 +2522,13 @@
       <c r="E39" t="s">
         <v>122</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>10611137.884944299</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>3.9136720344331903E-2</v>
       </c>
     </row>
@@ -2528,13 +2545,13 @@
       <c r="E40" t="s">
         <v>122</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>8846920.5026722495</v>
       </c>
       <c r="G40">
         <v>4</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>3.2629813821652802E-2</v>
       </c>
     </row>
@@ -2551,13 +2568,13 @@
       <c r="E41" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>8583951.5478871707</v>
       </c>
       <c r="G41">
         <v>5</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>3.1659913839741601E-2</v>
       </c>
     </row>
@@ -2578,13 +2595,13 @@
       <c r="E42" t="s">
         <v>123</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>659230622.49107504</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>0.16656957194972699</v>
       </c>
       <c r="I42" t="s">
@@ -2617,13 +2634,13 @@
       <c r="E43" t="s">
         <v>123</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>403239055.23338503</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <v>0.101887495107294</v>
       </c>
       <c r="I43" t="s">
@@ -2653,13 +2670,13 @@
       <c r="E44" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>314916864.215837</v>
       </c>
       <c r="G44">
         <v>3</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>7.9570889886706506E-2</v>
       </c>
     </row>
@@ -2680,13 +2697,13 @@
       <c r="E45" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>276954423.93559301</v>
       </c>
       <c r="G45">
         <v>4</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>6.9978818141385096E-2</v>
       </c>
     </row>
@@ -2707,23 +2724,23 @@
       <c r="E46" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>195108636.76668799</v>
       </c>
       <c r="G46">
         <v>5</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>4.9298623275592902E-2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="J7" r:id="rId2" display="https://sam.gov/opp/e14ecf100b8797dae93d46ee7b5df0c5/view"/>
-    <hyperlink ref="J12" r:id="rId3" display="https://sam.gov/opp/039ba89eaf3031bd807ebf5b70059f0a/view"/>
-    <hyperlink ref="J34" r:id="rId4" display="https://sam.gov/opp/823dac4812ab14f9545518e221b579e1/view"/>
-    <hyperlink ref="J35" r:id="rId5" display="https://sam.gov/opp/2e15d8be24f4bd8c9401372a850ae9d1/view"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J7" r:id="rId2" display="https://sam.gov/opp/e14ecf100b8797dae93d46ee7b5df0c5/view" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J12" r:id="rId3" display="https://sam.gov/opp/039ba89eaf3031bd807ebf5b70059f0a/view" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J34" r:id="rId4" display="https://sam.gov/opp/823dac4812ab14f9545518e221b579e1/view" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J35" r:id="rId5" display="https://sam.gov/opp/2e15d8be24f4bd8c9401372a850ae9d1/view" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -2731,10 +2748,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2742,30 +2759,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
